--- a/Safe_Results/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
+++ b/Safe_Results/SA_Capacity_Costs/SA_Capacity_Costs_LPHB.xlsx
@@ -521,46 +521,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.8155</v>
+        <v>7.168050000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>5.075499999999999</v>
+        <v>5.0405</v>
       </c>
       <c r="D2" t="n">
-        <v>36.1801</v>
+        <v>35.3989</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11735</v>
+        <v>0.169</v>
       </c>
       <c r="F2" t="n">
-        <v>1807.7313</v>
+        <v>1773.60575</v>
       </c>
       <c r="G2" t="n">
-        <v>1681.34325</v>
+        <v>1646.2776</v>
       </c>
       <c r="H2" t="n">
-        <v>126.388</v>
+        <v>127.3281</v>
       </c>
       <c r="I2" t="n">
-        <v>126.388</v>
+        <v>127.3281</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2116.6236</v>
+        <v>2111.6078</v>
       </c>
       <c r="L2" t="n">
-        <v>1681.344</v>
+        <v>1646.284</v>
       </c>
       <c r="M2" t="n">
-        <v>435.2796</v>
+        <v>465.3237999999999</v>
       </c>
       <c r="N2" t="n">
-        <v>245.6538</v>
+        <v>245.1684</v>
       </c>
       <c r="O2" t="n">
-        <v>189.626</v>
+        <v>220.1554</v>
       </c>
     </row>
     <row r="3">
@@ -570,43 +570,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.599</v>
+        <v>8.042999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>7.042</v>
+        <v>6.677</v>
       </c>
       <c r="D3" t="n">
-        <v>30.463</v>
+        <v>31.065</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1886.457</v>
+        <v>1849.072</v>
       </c>
       <c r="G3" t="n">
-        <v>1747.636</v>
+        <v>1713.789</v>
       </c>
       <c r="H3" t="n">
-        <v>138.82</v>
+        <v>135.283</v>
       </c>
       <c r="I3" t="n">
-        <v>124.274</v>
+        <v>117.216</v>
       </c>
       <c r="J3" t="n">
-        <v>14.546</v>
+        <v>18.067</v>
       </c>
       <c r="K3" t="n">
-        <v>1954.0164</v>
+        <v>1909.6012</v>
       </c>
       <c r="L3" t="n">
-        <v>1747.645</v>
+        <v>1713.826</v>
       </c>
       <c r="M3" t="n">
-        <v>206.3714</v>
+        <v>195.7752</v>
       </c>
       <c r="N3" t="n">
-        <v>206.3714</v>
+        <v>195.7752</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -619,43 +619,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.815</v>
+        <v>8.975</v>
       </c>
       <c r="C4" t="n">
-        <v>7.576</v>
+        <v>7.215</v>
       </c>
       <c r="D4" t="n">
-        <v>34.623</v>
+        <v>33.235</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2654.829</v>
+        <v>2628.05</v>
       </c>
       <c r="G4" t="n">
-        <v>2445.484</v>
+        <v>2439.661</v>
       </c>
       <c r="H4" t="n">
-        <v>209.345</v>
+        <v>188.389</v>
       </c>
       <c r="I4" t="n">
-        <v>209.345</v>
+        <v>188.389</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1968.2836</v>
+        <v>1926.2996</v>
       </c>
       <c r="L4" t="n">
-        <v>1808.902</v>
+        <v>1791.525</v>
       </c>
       <c r="M4" t="n">
-        <v>159.3816</v>
+        <v>134.7746</v>
       </c>
       <c r="N4" t="n">
-        <v>159.3816</v>
+        <v>134.7746</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -764,43 +764,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.1266</v>
+        <v>7.393200000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>5.254</v>
+        <v>5.26125</v>
       </c>
       <c r="D2" t="n">
-        <v>35.38154999999999</v>
+        <v>35.06255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11735</v>
+        <v>0.15485</v>
       </c>
       <c r="F2" t="n">
-        <v>1828.0463</v>
+        <v>1794.9705</v>
       </c>
       <c r="G2" t="n">
-        <v>1695.8099</v>
+        <v>1661.99105</v>
       </c>
       <c r="H2" t="n">
-        <v>132.23635</v>
+        <v>132.97945</v>
       </c>
       <c r="I2" t="n">
-        <v>132.23635</v>
+        <v>132.97945</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1854.3794</v>
+        <v>1812.2646</v>
       </c>
       <c r="L2" t="n">
-        <v>1695.809</v>
+        <v>1661.994</v>
       </c>
       <c r="M2" t="n">
-        <v>158.5704</v>
+        <v>150.2706</v>
       </c>
       <c r="N2" t="n">
-        <v>158.5704</v>
+        <v>150.2706</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -813,43 +813,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.728999999999999</v>
+        <v>8.121</v>
       </c>
       <c r="C3" t="n">
-        <v>6.939</v>
+        <v>6.607</v>
       </c>
       <c r="D3" t="n">
-        <v>30.529</v>
+        <v>31.233</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1903.5</v>
+        <v>1866.606</v>
       </c>
       <c r="G3" t="n">
-        <v>1749.856</v>
+        <v>1715.788</v>
       </c>
       <c r="H3" t="n">
-        <v>153.643</v>
+        <v>150.819</v>
       </c>
       <c r="I3" t="n">
-        <v>138.58</v>
+        <v>132.386</v>
       </c>
       <c r="J3" t="n">
-        <v>15.063</v>
+        <v>18.433</v>
       </c>
       <c r="K3" t="n">
-        <v>1884.5516</v>
+        <v>1838.4828</v>
       </c>
       <c r="L3" t="n">
-        <v>1749.833</v>
+        <v>1715.785</v>
       </c>
       <c r="M3" t="n">
-        <v>134.7186</v>
+        <v>122.6978</v>
       </c>
       <c r="N3" t="n">
-        <v>134.7186</v>
+        <v>122.6978</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -862,43 +862,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.535</v>
+        <v>9.571</v>
       </c>
       <c r="C4" t="n">
-        <v>6.916</v>
+        <v>6.909</v>
       </c>
       <c r="D4" t="n">
-        <v>38.143</v>
+        <v>36.505</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2822.403</v>
+        <v>2706.049</v>
       </c>
       <c r="G4" t="n">
-        <v>2645.637</v>
+        <v>2521.42</v>
       </c>
       <c r="H4" t="n">
-        <v>176.766</v>
+        <v>184.629</v>
       </c>
       <c r="I4" t="n">
-        <v>45.905</v>
+        <v>44.667</v>
       </c>
       <c r="J4" t="n">
-        <v>130.861</v>
+        <v>139.962</v>
       </c>
       <c r="K4" t="n">
-        <v>1934.1808</v>
+        <v>1882.9108</v>
       </c>
       <c r="L4" t="n">
-        <v>1884.845</v>
+        <v>1830.243</v>
       </c>
       <c r="M4" t="n">
-        <v>49.33579999999999</v>
+        <v>52.66780000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>49.33579999999999</v>
+        <v>52.66780000000001</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1007,46 +1007,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.9502</v>
+        <v>7.285900000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>5.12635</v>
+        <v>5.108149999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>35.48694999999999</v>
+        <v>34.79305000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11735</v>
+        <v>0.169</v>
       </c>
       <c r="F2" t="n">
-        <v>1807.80945</v>
+        <v>1773.56175</v>
       </c>
       <c r="G2" t="n">
-        <v>1683.9834</v>
+        <v>1649.487</v>
       </c>
       <c r="H2" t="n">
-        <v>123.82605</v>
+        <v>124.07475</v>
       </c>
       <c r="I2" t="n">
-        <v>123.82605</v>
+        <v>124.07475</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2138.6336</v>
+        <v>2107.2454</v>
       </c>
       <c r="L2" t="n">
-        <v>1683.979</v>
+        <v>1649.488</v>
       </c>
       <c r="M2" t="n">
-        <v>454.6546</v>
+        <v>457.7574000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>248.799</v>
+        <v>251.015</v>
       </c>
       <c r="O2" t="n">
-        <v>205.8556</v>
+        <v>206.7426</v>
       </c>
     </row>
     <row r="3">
@@ -1056,46 +1056,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.593999999999999</v>
+        <v>7.813</v>
       </c>
       <c r="C3" t="n">
-        <v>6.276</v>
+        <v>6.32</v>
       </c>
       <c r="D3" t="n">
-        <v>31.48</v>
+        <v>31.36</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1879.65</v>
+        <v>1843.319</v>
       </c>
       <c r="G3" t="n">
-        <v>1725.483</v>
+        <v>1692.235</v>
       </c>
       <c r="H3" t="n">
-        <v>154.167</v>
+        <v>151.084</v>
       </c>
       <c r="I3" t="n">
-        <v>130.65</v>
+        <v>127.546</v>
       </c>
       <c r="J3" t="n">
-        <v>23.518</v>
+        <v>23.538</v>
       </c>
       <c r="K3" t="n">
-        <v>1987.0926</v>
+        <v>1943.1248</v>
       </c>
       <c r="L3" t="n">
-        <v>1725.486</v>
+        <v>1692.227</v>
       </c>
       <c r="M3" t="n">
-        <v>261.6066</v>
+        <v>250.8978</v>
       </c>
       <c r="N3" t="n">
-        <v>225.967</v>
+        <v>224.961</v>
       </c>
       <c r="O3" t="n">
-        <v>35.6396</v>
+        <v>25.937</v>
       </c>
     </row>
     <row r="4">
@@ -1105,43 +1105,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.535</v>
+        <v>9.571</v>
       </c>
       <c r="C4" t="n">
-        <v>6.916</v>
+        <v>6.909</v>
       </c>
       <c r="D4" t="n">
-        <v>38.143</v>
+        <v>36.505</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2822.403</v>
+        <v>2706.049</v>
       </c>
       <c r="G4" t="n">
-        <v>2645.637</v>
+        <v>2521.42</v>
       </c>
       <c r="H4" t="n">
-        <v>176.766</v>
+        <v>184.629</v>
       </c>
       <c r="I4" t="n">
-        <v>45.905</v>
+        <v>44.667</v>
       </c>
       <c r="J4" t="n">
-        <v>130.861</v>
+        <v>139.962</v>
       </c>
       <c r="K4" t="n">
-        <v>1979.7326</v>
+        <v>1934.41</v>
       </c>
       <c r="L4" t="n">
-        <v>1884.845</v>
+        <v>1830.243</v>
       </c>
       <c r="M4" t="n">
-        <v>94.88759999999999</v>
+        <v>104.167</v>
       </c>
       <c r="N4" t="n">
-        <v>94.88759999999999</v>
+        <v>104.167</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1250,46 +1250,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.51155</v>
+        <v>7.815550000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>4.971</v>
+        <v>4.998349999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>37.37009999999999</v>
+        <v>36.60160000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01775</v>
+        <v>0.05955000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>1854.60435</v>
+        <v>1819.2937</v>
       </c>
       <c r="G2" t="n">
-        <v>1715.84995</v>
+        <v>1681.09285</v>
       </c>
       <c r="H2" t="n">
-        <v>138.75445</v>
+        <v>138.2008</v>
       </c>
       <c r="I2" t="n">
-        <v>138.75445</v>
+        <v>138.2008</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1852.1838</v>
+        <v>1786.138</v>
       </c>
       <c r="L2" t="n">
-        <v>1715.847</v>
+        <v>1681.098</v>
       </c>
       <c r="M2" t="n">
-        <v>136.3368</v>
+        <v>105.04</v>
       </c>
       <c r="N2" t="n">
-        <v>55.0792</v>
+        <v>57.70180000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>81.2576</v>
+        <v>47.338</v>
       </c>
     </row>
     <row r="3">
@@ -1299,43 +1299,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.986000000000001</v>
+        <v>8.496</v>
       </c>
       <c r="C3" t="n">
-        <v>6.737</v>
+        <v>6.274</v>
       </c>
       <c r="D3" t="n">
-        <v>31.635</v>
+        <v>32.443</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1923.076</v>
+        <v>1883.492</v>
       </c>
       <c r="G3" t="n">
-        <v>1761.558</v>
+        <v>1728.378</v>
       </c>
       <c r="H3" t="n">
-        <v>161.517</v>
+        <v>155.113</v>
       </c>
       <c r="I3" t="n">
-        <v>145.43</v>
+        <v>134.878</v>
       </c>
       <c r="J3" t="n">
-        <v>16.087</v>
+        <v>20.236</v>
       </c>
       <c r="K3" t="n">
-        <v>1807.4716</v>
+        <v>1772.272</v>
       </c>
       <c r="L3" t="n">
-        <v>1761.542</v>
+        <v>1728.363</v>
       </c>
       <c r="M3" t="n">
-        <v>45.9296</v>
+        <v>43.90900000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>45.9296</v>
+        <v>43.90900000000001</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1348,43 +1348,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.535</v>
+        <v>9.571</v>
       </c>
       <c r="C4" t="n">
-        <v>6.916</v>
+        <v>6.909</v>
       </c>
       <c r="D4" t="n">
-        <v>38.143</v>
+        <v>36.505</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2822.403</v>
+        <v>2706.049</v>
       </c>
       <c r="G4" t="n">
-        <v>2645.637</v>
+        <v>2521.42</v>
       </c>
       <c r="H4" t="n">
-        <v>176.766</v>
+        <v>184.629</v>
       </c>
       <c r="I4" t="n">
-        <v>45.905</v>
+        <v>44.667</v>
       </c>
       <c r="J4" t="n">
-        <v>130.861</v>
+        <v>139.962</v>
       </c>
       <c r="K4" t="n">
-        <v>1896.6538</v>
+        <v>1845.5708</v>
       </c>
       <c r="L4" t="n">
-        <v>1884.845</v>
+        <v>1830.243</v>
       </c>
       <c r="M4" t="n">
-        <v>11.8088</v>
+        <v>15.3278</v>
       </c>
       <c r="N4" t="n">
-        <v>11.8088</v>
+        <v>15.3278</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1493,46 +1493,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.18235</v>
+        <v>7.514100000000002</v>
       </c>
       <c r="C2" t="n">
-        <v>4.972949999999999</v>
+        <v>4.958549999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>38.2481</v>
+        <v>37.50170000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09959999999999999</v>
+        <v>0.1236</v>
       </c>
       <c r="F2" t="n">
-        <v>1840.8258</v>
+        <v>1805.0943</v>
       </c>
       <c r="G2" t="n">
-        <v>1708.7709</v>
+        <v>1673.6461</v>
       </c>
       <c r="H2" t="n">
-        <v>132.05475</v>
+        <v>131.4481</v>
       </c>
       <c r="I2" t="n">
-        <v>132.05475</v>
+        <v>131.4481</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1966.0488</v>
+        <v>1931.501</v>
       </c>
       <c r="L2" t="n">
-        <v>1708.77</v>
+        <v>1673.651</v>
       </c>
       <c r="M2" t="n">
-        <v>257.2787999999999</v>
+        <v>257.85</v>
       </c>
       <c r="N2" t="n">
-        <v>93.08540000000001</v>
+        <v>93.23139999999999</v>
       </c>
       <c r="O2" t="n">
-        <v>164.1934</v>
+        <v>164.6186</v>
       </c>
     </row>
     <row r="3">
@@ -1542,46 +1542,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.888999999999999</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>6.183</v>
+        <v>6.148</v>
       </c>
       <c r="D3" t="n">
-        <v>33.475</v>
+        <v>33.351</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1894.691</v>
+        <v>1854.712</v>
       </c>
       <c r="G3" t="n">
-        <v>1749.745</v>
+        <v>1724.812</v>
       </c>
       <c r="H3" t="n">
-        <v>144.947</v>
+        <v>129.899</v>
       </c>
       <c r="I3" t="n">
-        <v>137.649</v>
+        <v>127.141</v>
       </c>
       <c r="J3" t="n">
-        <v>7.298</v>
+        <v>2.759</v>
       </c>
       <c r="K3" t="n">
-        <v>1923.1354</v>
+        <v>1888.3986</v>
       </c>
       <c r="L3" t="n">
-        <v>1749.733</v>
+        <v>1724.818</v>
       </c>
       <c r="M3" t="n">
-        <v>173.4024</v>
+        <v>163.5806</v>
       </c>
       <c r="N3" t="n">
-        <v>81.16119999999999</v>
+        <v>73.95219999999999</v>
       </c>
       <c r="O3" t="n">
-        <v>92.24120000000001</v>
+        <v>89.6284</v>
       </c>
     </row>
     <row r="4">
@@ -1591,46 +1591,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.546</v>
+        <v>9.222</v>
       </c>
       <c r="C4" t="n">
-        <v>5.513</v>
+        <v>5.632</v>
       </c>
       <c r="D4" t="n">
-        <v>41.955</v>
+        <v>41.292</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2798.182</v>
+        <v>2656.859</v>
       </c>
       <c r="G4" t="n">
-        <v>2621.354</v>
+        <v>2467.622</v>
       </c>
       <c r="H4" t="n">
-        <v>176.828</v>
+        <v>189.237</v>
       </c>
       <c r="I4" t="n">
-        <v>76.154</v>
+        <v>93.246</v>
       </c>
       <c r="J4" t="n">
-        <v>100.674</v>
+        <v>95.991</v>
       </c>
       <c r="K4" t="n">
-        <v>1987.1916</v>
+        <v>1937.1534</v>
       </c>
       <c r="L4" t="n">
-        <v>1859.767</v>
+        <v>1801.649</v>
       </c>
       <c r="M4" t="n">
-        <v>127.4246</v>
+        <v>135.5044</v>
       </c>
       <c r="N4" t="n">
-        <v>35.8156</v>
+        <v>40.4918</v>
       </c>
       <c r="O4" t="n">
-        <v>91.6092</v>
+        <v>95.01259999999999</v>
       </c>
     </row>
   </sheetData>
